--- a/1.머신러닝/12.회귀_현대자동차가격예측/모델선택_알고리즘.xlsx
+++ b/1.머신러닝/12.회귀_현대자동차가격예측/모델선택_알고리즘.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>모델</t>
   </si>
@@ -34,22 +34,13 @@
     <t>LinearRegression</t>
   </si>
   <si>
-    <t>LinearRegression_poly</t>
-  </si>
-  <si>
-    <t>DecisionTreeRegressor 43,max_depth=4</t>
-  </si>
-  <si>
-    <t>KNeighborsRegressor(777, n_neighbors=3)</t>
-  </si>
-  <si>
-    <t>KNeighborsRegressor(42)</t>
+    <t>DecisionTreeRegressor</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor</t>
   </si>
   <si>
     <t xml:space="preserve"> 25.182</t>
-  </si>
-  <si>
-    <t>KNeighborsRegressor(42)+GridCV</t>
   </si>
 </sst>
 </file>
@@ -418,13 +409,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="38.29071428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -470,16 +461,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>0.961</v>
+        <v>0.9071433762774924</v>
       </c>
       <c r="C3" s="3">
-        <v>3850.02</v>
+        <v>576083.402</v>
       </c>
       <c r="D3" s="3">
-        <v>38.157</v>
+        <v>421.135</v>
       </c>
       <c r="E3" s="3">
-        <v>62.049</v>
+        <v>759.002</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -487,66 +478,49 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>0.966</v>
+        <v>0.962</v>
       </c>
       <c r="C4" s="3">
-        <v>3084.412</v>
+        <v>3541.04</v>
       </c>
       <c r="D4" s="3">
-        <v>35.591</v>
+        <v>37.95</v>
       </c>
       <c r="E4" s="3">
-        <v>55.537</v>
+        <v>59.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.993</v>
+      </c>
+      <c r="C5" s="3">
+        <v>634.14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>17.976</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.962</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3541.04</v>
-      </c>
-      <c r="D5" s="3">
-        <v>37.95</v>
-      </c>
-      <c r="E5" s="3">
-        <v>59.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>0.993</v>
+        <v>0.977</v>
       </c>
       <c r="C6" s="3">
-        <v>634.14</v>
+        <v>2100.665</v>
       </c>
       <c r="D6" s="3">
-        <v>17.976</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.977</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2100.665</v>
-      </c>
-      <c r="D7" s="3">
         <v>45.833</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E6" s="3">
         <v>30.114</v>
       </c>
     </row>
